--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H2">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I2">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J2">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.23954733333333</v>
+        <v>6.382924</v>
       </c>
       <c r="N2">
-        <v>30.718642</v>
+        <v>19.148772</v>
       </c>
       <c r="O2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="P2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="Q2">
-        <v>21561.49609108719</v>
+        <v>0.653298654324</v>
       </c>
       <c r="R2">
-        <v>194053.4648197847</v>
+        <v>5.879687888916001</v>
       </c>
       <c r="S2">
-        <v>0.2020005737037037</v>
+        <v>0.02835423851330973</v>
       </c>
       <c r="T2">
-        <v>0.2020005737037037</v>
+        <v>0.02835423851330973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H3">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I3">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J3">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>88.018812</v>
       </c>
       <c r="O3">
-        <v>0.5789038816772371</v>
+        <v>0.6265841681043937</v>
       </c>
       <c r="P3">
-        <v>0.5789038816772369</v>
+        <v>0.6265841681043938</v>
       </c>
       <c r="Q3">
-        <v>61780.63701123695</v>
+        <v>3.002937809004</v>
       </c>
       <c r="R3">
-        <v>556025.7331011326</v>
+        <v>27.026440281036</v>
       </c>
       <c r="S3">
-        <v>0.5787967619375374</v>
+        <v>0.130332451036869</v>
       </c>
       <c r="T3">
-        <v>0.5787967619375374</v>
+        <v>0.130332451036869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H4">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I4">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J4">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>33.30646</v>
       </c>
       <c r="O4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="P4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="Q4">
-        <v>23377.89239179101</v>
+        <v>1.13631649582</v>
       </c>
       <c r="R4">
-        <v>210401.0315261191</v>
+        <v>10.22684846238</v>
       </c>
       <c r="S4">
-        <v>0.2190176254549097</v>
+        <v>0.04931800905426259</v>
       </c>
       <c r="T4">
-        <v>0.2190176254549097</v>
+        <v>0.04931800905426258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.057264</v>
       </c>
       <c r="I5">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J5">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.23954733333333</v>
+        <v>6.382924</v>
       </c>
       <c r="N5">
-        <v>30.718642</v>
+        <v>19.148772</v>
       </c>
       <c r="O5">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="P5">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="Q5">
-        <v>3.60863492394311</v>
+        <v>2.249478586645333</v>
       </c>
       <c r="R5">
-        <v>32.477714315488</v>
+        <v>20.245307279808</v>
       </c>
       <c r="S5">
-        <v>3.380778039910931E-05</v>
+        <v>0.09763107876339229</v>
       </c>
       <c r="T5">
-        <v>3.380778039910932E-05</v>
+        <v>0.0976310787633923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.057264</v>
       </c>
       <c r="I6">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J6">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>88.018812</v>
       </c>
       <c r="O6">
-        <v>0.5789038816772371</v>
+        <v>0.6265841681043937</v>
       </c>
       <c r="P6">
-        <v>0.5789038816772369</v>
+        <v>0.6265841681043938</v>
       </c>
       <c r="Q6">
         <v>10.339902361152</v>
@@ -818,10 +818,10 @@
         <v>93.05912125036799</v>
       </c>
       <c r="S6">
-        <v>9.687018934907629E-05</v>
+        <v>0.448768807056255</v>
       </c>
       <c r="T6">
-        <v>9.687018934907631E-05</v>
+        <v>0.448768807056255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.057264</v>
       </c>
       <c r="I7">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J7">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>33.30646</v>
       </c>
       <c r="O7">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="P7">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="Q7">
         <v>3.912635680604444</v>
@@ -880,10 +880,10 @@
         <v>35.21372112544</v>
       </c>
       <c r="S7">
-        <v>3.665583542240306E-05</v>
+        <v>0.1698148382355681</v>
       </c>
       <c r="T7">
-        <v>3.665583542240307E-05</v>
+        <v>0.1698148382355681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H8">
         <v>0.111866</v>
       </c>
       <c r="I8">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J8">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.23954733333333</v>
+        <v>6.382924</v>
       </c>
       <c r="N8">
-        <v>30.718642</v>
+        <v>19.148772</v>
       </c>
       <c r="O8">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="P8">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="Q8">
-        <v>0.3818190673302223</v>
+        <v>0.2380107253946667</v>
       </c>
       <c r="R8">
-        <v>3.436371605972</v>
+        <v>2.142096528552</v>
       </c>
       <c r="S8">
-        <v>3.577101993567135E-06</v>
+        <v>0.01033005782561938</v>
       </c>
       <c r="T8">
-        <v>3.577101993567135E-06</v>
+        <v>0.01033005782561938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H9">
         <v>0.111866</v>
       </c>
       <c r="I9">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J9">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>88.018812</v>
       </c>
       <c r="O9">
-        <v>0.5789038816772371</v>
+        <v>0.6265841681043937</v>
       </c>
       <c r="P9">
-        <v>0.5789038816772369</v>
+        <v>0.6265841681043938</v>
       </c>
       <c r="Q9">
         <v>1.094034713688</v>
@@ -1004,10 +1004,10 @@
         <v>9.846312423192</v>
       </c>
       <c r="S9">
-        <v>1.02495503504553E-05</v>
+        <v>0.04748291001126968</v>
       </c>
       <c r="T9">
-        <v>1.02495503504553E-05</v>
+        <v>0.04748291001126968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H10">
         <v>0.111866</v>
       </c>
       <c r="I10">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J10">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>33.30646</v>
       </c>
       <c r="O10">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="P10">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="Q10">
         <v>0.4139844949288889</v>
@@ -1066,10 +1066,10 @@
         <v>3.72586045436</v>
       </c>
       <c r="S10">
-        <v>3.878446334465698E-06</v>
+        <v>0.01796760950345425</v>
       </c>
       <c r="T10">
-        <v>3.878446334465698E-06</v>
+        <v>0.01796760950345425</v>
       </c>
     </row>
   </sheetData>
